--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">TC272-140823-CSV </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -330,7 +330,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,7 +366,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D156C1-ED0E-4521-A880-023DBC85F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB4238-EF01-4F72-B5CF-5E8684CB1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DB4238-EF01-4F72-B5CF-5E8684CB1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C785FE-AEB3-4835-899A-C5E968509B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
